--- a/TestData/ScreeningTestData.xlsx
+++ b/TestData/ScreeningTestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="925" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="925" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="SearchAndRegisterShips" sheetId="1" r:id="rId1"/>
@@ -604,8 +604,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -633,7 +633,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>

--- a/TestData/ScreeningTestData.xlsx
+++ b/TestData/ScreeningTestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="925" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="925" firstSheet="5" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="SearchAndRegisterShips" sheetId="1" r:id="rId1"/>
@@ -13,19 +13,20 @@
     <sheet name="FilterShips" sheetId="3" r:id="rId4"/>
     <sheet name="S_ShipProcessStatus" sheetId="4" r:id="rId5"/>
     <sheet name="Generic_VerifyPurpleTRAC_UI" sheetId="5" r:id="rId6"/>
-    <sheet name="S_DeclineShip" sheetId="6" r:id="rId7"/>
+    <sheet name="DeclineShip" sheetId="6" r:id="rId7"/>
     <sheet name="TrackShipInfo" sheetId="7" r:id="rId8"/>
     <sheet name="S_VerifyShipImageFlag" sheetId="9" r:id="rId9"/>
-    <sheet name="S_SearchAndAddShipsMap" sheetId="10" r:id="rId10"/>
+    <sheet name="SearchAndAddShipsMap" sheetId="10" r:id="rId10"/>
     <sheet name="T_ViewFullShipDetails" sheetId="11" r:id="rId11"/>
     <sheet name="Screening_TrackShip" sheetId="8" r:id="rId12"/>
+    <sheet name="ShipMapView" sheetId="13" r:id="rId13"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="27">
   <si>
     <t>Ship name/IMO</t>
   </si>
@@ -72,12 +73,6 @@
     <t>DepartureDate</t>
   </si>
   <si>
-    <t>#05/06/2018</t>
-  </si>
-  <si>
-    <t>#00:30</t>
-  </si>
-  <si>
     <t>9605700</t>
   </si>
   <si>
@@ -91,19 +86,46 @@
   </si>
   <si>
     <t>ShipIMO</t>
+  </si>
+  <si>
+    <t>4445</t>
+  </si>
+  <si>
+    <t>N otes</t>
+  </si>
+  <si>
+    <t>8903923</t>
+  </si>
+  <si>
+    <t>Ship Name/IMO</t>
+  </si>
+  <si>
+    <t>VITIM</t>
+  </si>
+  <si>
+    <t>05/06/2018</t>
+  </si>
+  <si>
+    <t>00:30</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF666666"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -148,13 +170,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -472,17 +495,17 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>17</v>
+      <c r="A2" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>18</v>
+      <c r="A3" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -495,7 +518,7 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -566,6 +589,34 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A3"/>
@@ -585,13 +636,13 @@
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>17</v>
+      <c r="A2" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>18</v>
+      <c r="A3" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -602,10 +653,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -613,14 +664,28 @@
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
+      </c>
+      <c r="B2">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3">
+        <v>456</v>
       </c>
     </row>
   </sheetData>
@@ -634,7 +699,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -644,18 +709,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>17</v>
+      <c r="B2" s="4" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -711,7 +776,7 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -722,12 +787,13 @@
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <c r="A2" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -735,8 +801,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -748,7 +814,7 @@
     <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
@@ -786,39 +852,40 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="A2" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="1" t="s">
+      <c r="D2" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J2" s="1" t="s">
+      <c r="H2" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="J2" s="6" t="s">
         <v>12</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/TestData/ScreeningTestData.xlsx
+++ b/TestData/ScreeningTestData.xlsx
@@ -4,29 +4,24 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="925" firstSheet="5" activeTab="7"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="925" firstSheet="1" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="SearchAndRegisterShips" sheetId="1" r:id="rId1"/>
     <sheet name="AddMultipleShips" sheetId="12" r:id="rId2"/>
     <sheet name="AddNotesToShip" sheetId="2" r:id="rId3"/>
     <sheet name="FilterShips" sheetId="3" r:id="rId4"/>
-    <sheet name="S_ShipProcessStatus" sheetId="4" r:id="rId5"/>
-    <sheet name="Generic_VerifyPurpleTRAC_UI" sheetId="5" r:id="rId6"/>
-    <sheet name="DeclineShip" sheetId="6" r:id="rId7"/>
-    <sheet name="TrackShipInfo" sheetId="7" r:id="rId8"/>
-    <sheet name="S_VerifyShipImageFlag" sheetId="9" r:id="rId9"/>
-    <sheet name="SearchAndAddShipsMap" sheetId="10" r:id="rId10"/>
-    <sheet name="T_ViewFullShipDetails" sheetId="11" r:id="rId11"/>
-    <sheet name="Screening_TrackShip" sheetId="8" r:id="rId12"/>
-    <sheet name="ShipMapView" sheetId="13" r:id="rId13"/>
+    <sheet name="DeclineShip" sheetId="6" r:id="rId5"/>
+    <sheet name="TrackShipInfo" sheetId="7" r:id="rId6"/>
+    <sheet name="SearchAndAddShipsMap" sheetId="10" r:id="rId7"/>
+    <sheet name="ShipMapView" sheetId="13" r:id="rId8"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
   <si>
     <t>Ship name/IMO</t>
   </si>
@@ -100,20 +95,20 @@
     <t>Ship Name/IMO</t>
   </si>
   <si>
-    <t>VITIM</t>
-  </si>
-  <si>
     <t>05/06/2018</t>
   </si>
   <si>
     <t>00:30</t>
+  </si>
+  <si>
+    <t>SCOUT II</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -133,6 +128,11 @@
       <color rgb="FF666666"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Source Sans Pro"/>
     </font>
   </fonts>
   <fills count="2">
@@ -176,8 +176,8 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -488,22 +488,22 @@
       <selection activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1">
       <c r="A2" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1">
       <c r="A3" s="2" t="s">
         <v>16</v>
       </c>
@@ -513,134 +513,30 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1">
       <c r="A2" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1">
       <c r="A3" s="2" t="s">
         <v>16</v>
       </c>
@@ -659,12 +555,12 @@
       <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -672,7 +568,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" s="4" t="s">
         <v>15</v>
       </c>
@@ -680,7 +576,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
         <v>20</v>
       </c>
@@ -702,12 +598,12 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -715,7 +611,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -730,48 +626,6 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -779,14 +633,14 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1">
       <c r="A2" s="3" t="s">
         <v>22</v>
       </c>
@@ -797,15 +651,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
@@ -819,7 +673,7 @@
     <col min="10" max="10" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -851,35 +705,35 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10">
       <c r="A2" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="E2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="G2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="H2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="5" t="s">
         <v>12</v>
       </c>
     </row>
@@ -889,24 +743,55 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
         <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
